--- a/biology/Médecine/Étienne_Clément_(médecin)/Étienne_Clément_(médecin).xlsx
+++ b/biology/Médecine/Étienne_Clément_(médecin)/Étienne_Clément_(médecin).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89tienne_Cl%C3%A9ment_(m%C3%A9decin)</t>
+          <t>Étienne_Clément_(médecin)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Étienne Clément, né le 4 février 1843 à Lyon et mort dans cette même commune le 18 novembre 1907, est un médecin français[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Étienne Clément, né le 4 février 1843 à Lyon et mort dans cette même commune le 18 novembre 1907, est un médecin français.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89tienne_Cl%C3%A9ment_(m%C3%A9decin)</t>
+          <t>Étienne_Clément_(médecin)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Étienne Clément effectue ses études de médecine à Lyon et est reçu docteur en médecine à la faculté de médecine de Paris[2]. Il est nommé médecin aux hôpitaux de Lyon en 1872 et médecin chef de l'hôpital Saint-Joseph en 1896[3]. Il enseigne la sémiologie médicale et la médecine légale à la faculté de médecine de Lyon.
-Il est président de la société des sciences médicales, vice-président de la société de médecine, membre de la société médicale des hôpitaux, membre de la société médicale des hôpitaux, membre de la société d'hygiène et de l'Académie des sciences, belles-lettres et arts de Lyon[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Étienne Clément effectue ses études de médecine à Lyon et est reçu docteur en médecine à la faculté de médecine de Paris. Il est nommé médecin aux hôpitaux de Lyon en 1872 et médecin chef de l'hôpital Saint-Joseph en 1896. Il enseigne la sémiologie médicale et la médecine légale à la faculté de médecine de Lyon.
+Il est président de la société des sciences médicales, vice-président de la société de médecine, membre de la société médicale des hôpitaux, membre de la société médicale des hôpitaux, membre de la société d'hygiène et de l'Académie des sciences, belles-lettres et arts de Lyon.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89tienne_Cl%C3%A9ment_(m%C3%A9decin)</t>
+          <t>Étienne_Clément_(médecin)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Étienne Clément est fait chevalier de la Légion d'honneur le 7 mai 1895[4], officier d'Académie et chevalier de l'ordre de Saint-Grégoire-le-Grand[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Étienne Clément est fait chevalier de la Légion d'honneur le 7 mai 1895, officier d'Académie et chevalier de l'ordre de Saint-Grégoire-le-Grand.
 </t>
         </is>
       </c>
